--- a/R/ClusterResult.xlsx
+++ b/R/ClusterResult.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhash\OneDrive\Documents\GitHub\IRHEIS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7424FA-D39B-4A3C-9C93-7BEC2593508E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1999F2-8516-480F-9071-2250BB0F16FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$118</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -442,13 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -488,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>90</v>
       </c>
@@ -526,7 +533,7 @@
         <v>7.6775729388773944E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>91</v>
       </c>
@@ -564,7 +571,7 @@
         <v>8.5812075204024049E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>92</v>
       </c>
@@ -602,7 +609,7 @@
         <v>7.2670612587425534E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>93</v>
       </c>
@@ -640,7 +647,7 @@
         <v>6.2090216570534207E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>94</v>
       </c>
@@ -678,7 +685,7 @@
         <v>5.7441870180148527E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>95</v>
       </c>
@@ -716,118 +723,118 @@
         <v>6.2810800093825253E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>96</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>217367.38740377029</v>
+        <v>17055.911558795</v>
       </c>
       <c r="D8">
-        <v>0.43046199824201797</v>
+        <v>0.12766445153251529</v>
       </c>
       <c r="E8">
-        <v>2447.5624576072619</v>
+        <v>2765.9972266217069</v>
       </c>
       <c r="F8">
-        <v>989</v>
+        <v>6613</v>
       </c>
       <c r="G8">
-        <v>0.1613205878102533</v>
+        <v>0.34225060896059339</v>
       </c>
       <c r="H8">
-        <v>1226800.5623768831</v>
+        <v>968925.22975207213</v>
       </c>
       <c r="I8">
-        <v>8407477.2797570918</v>
+        <v>2832530.031109334</v>
       </c>
       <c r="J8">
-        <v>0.17525468043412401</v>
+        <v>0.27877337247345291</v>
       </c>
       <c r="K8">
-        <v>0.16182704265411091</v>
+        <v>0.1837058017261293</v>
       </c>
       <c r="L8">
-        <v>7.9388786036162465E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7.589234469405115E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>97</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>287291.63318893552</v>
+        <v>21275.314588751698</v>
       </c>
       <c r="D9">
-        <v>0.4685619609491346</v>
+        <v>0.1329347125167307</v>
       </c>
       <c r="E9">
-        <v>2375.1653585927161</v>
+        <v>2660.0378654132492</v>
       </c>
       <c r="F9">
-        <v>1016</v>
+        <v>6469</v>
       </c>
       <c r="G9">
-        <v>0.15414364824962881</v>
+        <v>0.34883312580558368</v>
       </c>
       <c r="H9">
-        <v>1630871.354408154</v>
+        <v>1240511.7015035041</v>
       </c>
       <c r="I9">
-        <v>11494311.034200121</v>
+        <v>3711159.6360742091</v>
       </c>
       <c r="J9">
-        <v>0.18050159747453939</v>
+        <v>0.3411807951296239</v>
       </c>
       <c r="K9">
-        <v>0.19892612281441899</v>
+        <v>0.19775428923018101</v>
       </c>
       <c r="L9">
-        <v>8.0145913735171659E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.6111928171980212E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>98</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>396998.6373863031</v>
+        <v>26773.455199622731</v>
       </c>
       <c r="D10">
-        <v>0.48595990877343093</v>
+        <v>0.1218196410456384</v>
       </c>
       <c r="E10">
-        <v>2248.5416052762471</v>
+        <v>2684.584043169089</v>
       </c>
       <c r="F10">
-        <v>862</v>
+        <v>1935</v>
       </c>
       <c r="G10">
-        <v>0.14590582386348261</v>
+        <v>0.38546582445590499</v>
       </c>
       <c r="H10">
-        <v>2049759.9008623289</v>
+        <v>2138514.2282972219</v>
       </c>
       <c r="I10">
-        <v>14876364.81505955</v>
+        <v>5860829.2257064953</v>
       </c>
       <c r="J10">
-        <v>0.23880544572050641</v>
+        <v>0.57397280446163701</v>
       </c>
       <c r="K10">
-        <v>0.1674769209760387</v>
+        <v>0.32547530169449429</v>
       </c>
       <c r="L10">
-        <v>6.4832622767263023E-2</v>
+        <v>0.18205719690601199</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1058,121 +1065,121 @@
         <v>7.935853897369495E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>96</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>91682.479200811751</v>
+        <v>40446.497146702321</v>
       </c>
       <c r="D17">
-        <v>0.31883796964069661</v>
+        <v>0.21040312484302609</v>
       </c>
       <c r="E17">
-        <v>2375.833879800889</v>
+        <v>2712.581462479628</v>
       </c>
       <c r="F17">
-        <v>1298</v>
+        <v>4480</v>
       </c>
       <c r="G17">
-        <v>0.18780151191844091</v>
+        <v>0.25948098430458078</v>
       </c>
       <c r="H17">
-        <v>1182823.747704631</v>
+        <v>976912.87280420423</v>
       </c>
       <c r="I17">
-        <v>6506592.3029105086</v>
+        <v>3794459.0803382918</v>
       </c>
       <c r="J17">
-        <v>0.20828316957301071</v>
+        <v>0.20633551488733101</v>
       </c>
       <c r="K17">
-        <v>0.1897270548502113</v>
+        <v>0.1475554218626097</v>
       </c>
       <c r="L17">
-        <v>7.3002740155287085E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.2410295670568595E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>97</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>107483.91455158179</v>
+        <v>32068.61549588681</v>
       </c>
       <c r="D18">
-        <v>0.32888257484308592</v>
+        <v>0.19131354779493909</v>
       </c>
       <c r="E18">
-        <v>2170.939762462127</v>
+        <v>2422.271935554958</v>
       </c>
       <c r="F18">
-        <v>1385</v>
+        <v>2757</v>
       </c>
       <c r="G18">
-        <v>0.19503060067238431</v>
+        <v>0.30607117512287441</v>
       </c>
       <c r="H18">
-        <v>1576694.5411449049</v>
+        <v>1286374.7214324861</v>
       </c>
       <c r="I18">
-        <v>8547282.766006805</v>
+        <v>4461751.9066816373</v>
       </c>
       <c r="J18">
-        <v>0.30852189437196581</v>
+        <v>0.26053428821523161</v>
       </c>
       <c r="K18">
-        <v>0.1881614348829147</v>
+        <v>0.18199940982001561</v>
       </c>
       <c r="L18">
-        <v>7.6755368494784232E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7.8371874626677399E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>98</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>152304.52648855461</v>
+        <v>28251.877634593369</v>
       </c>
       <c r="D19">
-        <v>0.3529283943474501</v>
+        <v>0.13448074879309821</v>
       </c>
       <c r="E19">
-        <v>2150.9300771921789</v>
+        <v>2654.4642903187828</v>
       </c>
       <c r="F19">
-        <v>1222</v>
+        <v>5878</v>
       </c>
       <c r="G19">
-        <v>0.1914526266414745</v>
+        <v>0.34505777506155239</v>
       </c>
       <c r="H19">
-        <v>2068183.2078091239</v>
+        <v>1987198.3330980551</v>
       </c>
       <c r="I19">
-        <v>11310049.122205799</v>
+        <v>5931137.0281966487</v>
       </c>
       <c r="J19">
-        <v>0.26862041671843739</v>
+        <v>0.48413991581180138</v>
       </c>
       <c r="K19">
-        <v>0.23882709742023051</v>
+        <v>0.2233544335575309</v>
       </c>
       <c r="L19">
-        <v>0.1090686129898002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.1196537072166837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>90</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>8.2502791768449574E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>91</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>8.4639735353870676E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>92</v>
       </c>
@@ -1286,7 +1293,7 @@
         <v>7.3715507056831289E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>93</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>6.8898925687859561E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>94</v>
       </c>
@@ -1362,7 +1369,7 @@
         <v>6.4177543925577452E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>95</v>
       </c>
@@ -1400,121 +1407,121 @@
         <v>6.308420638449716E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>96</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>61380.608592327073</v>
+        <v>43957.750804056057</v>
       </c>
       <c r="D26">
-        <v>0.27180539921494629</v>
+        <v>0.22081474818195709</v>
       </c>
       <c r="E26">
-        <v>2352.2056284275141</v>
+        <v>2822.0892150513459</v>
       </c>
       <c r="F26">
-        <v>4448</v>
+        <v>676</v>
       </c>
       <c r="G26">
-        <v>0.22235775668804039</v>
+        <v>0.32264066275584241</v>
       </c>
       <c r="H26">
-        <v>1124102.6436914599</v>
+        <v>1030987.641450482</v>
       </c>
       <c r="I26">
-        <v>5141973.856133067</v>
+        <v>3080409.3652423248</v>
       </c>
       <c r="J26">
-        <v>0.23851746696023091</v>
+        <v>0.33246192731601393</v>
       </c>
       <c r="K26">
-        <v>0.14954606637074969</v>
+        <v>0.24347456553811511</v>
       </c>
       <c r="L26">
-        <v>5.9672605287370437E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.12124681715928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>97</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>74151.060024417326</v>
+        <v>49867.064308909059</v>
       </c>
       <c r="D27">
-        <v>0.27900697626982951</v>
+        <v>0.21964306621066071</v>
       </c>
       <c r="E27">
-        <v>2231.49375734772</v>
+        <v>2517.739498295075</v>
       </c>
       <c r="F27">
-        <v>4699</v>
+        <v>5147</v>
       </c>
       <c r="G27">
-        <v>0.22871491116380799</v>
+        <v>0.26233244461933081</v>
       </c>
       <c r="H27">
-        <v>1443370.0144776581</v>
+        <v>1370575.3392835669</v>
       </c>
       <c r="I27">
-        <v>6697200.1118416786</v>
+        <v>5432424.0611562179</v>
       </c>
       <c r="J27">
-        <v>0.32684285835101751</v>
+        <v>0.28905296369855288</v>
       </c>
       <c r="K27">
-        <v>0.17329107856907641</v>
+        <v>0.1674244445248205</v>
       </c>
       <c r="L27">
-        <v>6.8255779027701996E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7.0674048150901558E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>98</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>98955.723105194658</v>
+        <v>69752.677961048859</v>
       </c>
       <c r="D28">
-        <v>0.2894698725447386</v>
+        <v>0.22176589980500069</v>
       </c>
       <c r="E28">
-        <v>2170.9145611630129</v>
+        <v>2713.947299342944</v>
       </c>
       <c r="F28">
-        <v>4161</v>
+        <v>676</v>
       </c>
       <c r="G28">
-        <v>0.22601845493844619</v>
+        <v>0.31693772120235592</v>
       </c>
       <c r="H28">
-        <v>2155697.749947031</v>
+        <v>2159025.6827680478</v>
       </c>
       <c r="I28">
-        <v>9918177.5618582964</v>
+        <v>6643852.8947480302</v>
       </c>
       <c r="J28">
-        <v>0.36928842696446718</v>
+        <v>0.50315510573274169</v>
       </c>
       <c r="K28">
-        <v>0.23153220227497109</v>
+        <v>0.34308210787019922</v>
       </c>
       <c r="L28">
-        <v>9.6923050648158912E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.1747525312243205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>90</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>6.7854453065913506E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>91</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>7.462608857278713E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>92</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>6.8434319932879864E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>93</v>
       </c>
@@ -1666,7 +1673,7 @@
         <v>8.8534903726340264E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>94</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>5.8936825408429767E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>95</v>
       </c>
@@ -1742,121 +1749,121 @@
         <v>7.5120295078991137E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>96</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>58194.012650687357</v>
+        <v>32880.846052747351</v>
       </c>
       <c r="D35">
-        <v>0.25598030246509818</v>
+        <v>0.18012743391554981</v>
       </c>
       <c r="E35">
-        <v>2453.4937016236709</v>
+        <v>2846.6263387643689</v>
       </c>
       <c r="F35">
-        <v>4824</v>
+        <v>1249</v>
       </c>
       <c r="G35">
-        <v>0.23082064139530309</v>
+        <v>0.26763119043352313</v>
       </c>
       <c r="H35">
-        <v>1070270.504078713</v>
+        <v>1069652.076126378</v>
       </c>
       <c r="I35">
-        <v>4738538.1146665337</v>
+        <v>4222972.9675258799</v>
       </c>
       <c r="J35">
-        <v>0.21354031949641439</v>
+        <v>0.151740075161308</v>
       </c>
       <c r="K35">
-        <v>0.17054466482598629</v>
+        <v>0.14800629755546091</v>
       </c>
       <c r="L35">
-        <v>7.235364154356981E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.9016635287013077E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>97</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>69491.215673452476</v>
+        <v>49788.687071675333</v>
       </c>
       <c r="D36">
-        <v>0.26082601663310651</v>
+        <v>0.23059023546978241</v>
       </c>
       <c r="E36">
-        <v>2403.6853394062641</v>
+        <v>2396.856650942017</v>
       </c>
       <c r="F36">
-        <v>5349</v>
+        <v>1911</v>
       </c>
       <c r="G36">
-        <v>0.2420302503443153</v>
+        <v>0.25108194239097492</v>
       </c>
       <c r="H36">
-        <v>1471202.2368761611</v>
+        <v>1371593.1897945581</v>
       </c>
       <c r="I36">
-        <v>6567012.4625465469</v>
+        <v>5678820.2735559</v>
       </c>
       <c r="J36">
-        <v>0.32511304080317571</v>
+        <v>0.35393548975687961</v>
       </c>
       <c r="K36">
-        <v>0.20353379312727371</v>
+        <v>0.21153095795745641</v>
       </c>
       <c r="L36">
-        <v>8.969375400733727E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.9785732185237735E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>98</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>91321.358821530652</v>
+        <v>24525.317408190142</v>
       </c>
       <c r="D37">
-        <v>0.27191064286837552</v>
+        <v>0.1207914360951293</v>
       </c>
       <c r="E37">
-        <v>2465.4217879480002</v>
+        <v>2673.281162377014</v>
       </c>
       <c r="F37">
-        <v>4852</v>
+        <v>4434</v>
       </c>
       <c r="G37">
-        <v>0.25502641208228338</v>
+        <v>0.33114653231677299</v>
       </c>
       <c r="H37">
-        <v>2123856.7788258558</v>
+        <v>2132106.1457239818</v>
       </c>
       <c r="I37">
-        <v>9272381.7591832653</v>
+        <v>6914138.5108693726</v>
       </c>
       <c r="J37">
-        <v>0.36670136368618922</v>
+        <v>0.48539942990562063</v>
       </c>
       <c r="K37">
-        <v>0.23625982094944301</v>
+        <v>0.2040607067010605</v>
       </c>
       <c r="L37">
-        <v>0.1177350465759104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.1179492173286574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>90</v>
       </c>
@@ -1894,7 +1901,7 @@
         <v>9.1800139903736866E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>91</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>6.5444283884128332E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>92</v>
       </c>
@@ -1970,7 +1977,7 @@
         <v>7.2877704293936724E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>93</v>
       </c>
@@ -2008,7 +2015,7 @@
         <v>9.8582563529964154E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>94</v>
       </c>
@@ -2046,7 +2053,7 @@
         <v>8.6419100746138885E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>95</v>
       </c>
@@ -2084,121 +2091,121 @@
         <v>0.1088344493889718</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>96</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>39010.668367016893</v>
+        <v>25630.754516255809</v>
       </c>
       <c r="D44">
-        <v>0.22155647692518499</v>
+        <v>0.17946848130483711</v>
       </c>
       <c r="E44">
-        <v>2518.4848662124659</v>
+        <v>2604.046503711967</v>
       </c>
       <c r="F44">
-        <v>1935</v>
+        <v>2986</v>
       </c>
       <c r="G44">
-        <v>0.24979619539779269</v>
+        <v>0.3028359264046534</v>
       </c>
       <c r="H44">
-        <v>1101387.7485945381</v>
+        <v>1070058.1014267809</v>
       </c>
       <c r="I44">
-        <v>4549182.1367015447</v>
+        <v>3690887.5362320421</v>
       </c>
       <c r="J44">
-        <v>0.33099719857983778</v>
+        <v>0.24243213634310631</v>
       </c>
       <c r="K44">
-        <v>0.21695080142870929</v>
+        <v>0.17433486793340119</v>
       </c>
       <c r="L44">
-        <v>7.8820479497057505E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+        <v>6.5340576299298361E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>97</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>49788.687071675333</v>
+        <v>19928.404769274621</v>
       </c>
       <c r="D45">
-        <v>0.23059023546978241</v>
+        <v>0.11257546238633399</v>
       </c>
       <c r="E45">
-        <v>2396.856650942017</v>
+        <v>2653.4722728525398</v>
       </c>
       <c r="F45">
-        <v>1911</v>
+        <v>4852</v>
       </c>
       <c r="G45">
-        <v>0.25108194239097492</v>
+        <v>0.31081462579906799</v>
       </c>
       <c r="H45">
-        <v>1371593.1897945581</v>
+        <v>1398345.2062890821</v>
       </c>
       <c r="I45">
-        <v>5678820.2735559</v>
+        <v>4576857.0384191154</v>
       </c>
       <c r="J45">
-        <v>0.35393548975687961</v>
+        <v>0.34635291400912022</v>
       </c>
       <c r="K45">
-        <v>0.21153095795745641</v>
+        <v>0.16901299783910739</v>
       </c>
       <c r="L45">
-        <v>8.9785732185237735E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.5542342934135804E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>98</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>62654.372058345863</v>
+        <v>45491.142271759949</v>
       </c>
       <c r="D46">
-        <v>0.24378166984953251</v>
+        <v>0.22079669581436279</v>
       </c>
       <c r="E46">
-        <v>2494.0671327595701</v>
+        <v>2369.8838267169799</v>
       </c>
       <c r="F46">
-        <v>1713</v>
+        <v>2528</v>
       </c>
       <c r="G46">
-        <v>0.25825223065360148</v>
+        <v>0.29736402557705871</v>
       </c>
       <c r="H46">
-        <v>2005981.937305738</v>
+        <v>2075269.332828922</v>
       </c>
       <c r="I46">
-        <v>8243638.5485356357</v>
+        <v>7150972.6563456329</v>
       </c>
       <c r="J46">
-        <v>0.43094941822200872</v>
+        <v>0.40988531900237202</v>
       </c>
       <c r="K46">
-        <v>0.25219914038146413</v>
+        <v>0.21567196167387351</v>
       </c>
       <c r="L46">
-        <v>0.11907294427899009</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.11194078138238001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>90</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>5.8765199815576263E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>91</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>5.6538971450032019E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>92</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>5.5157670526948713E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>93</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>6.0218562450892382E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>94</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>5.7576469292820592E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>95</v>
       </c>
@@ -2426,83 +2433,83 @@
         <v>5.6622661426006318E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>96</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>40446.497146702321</v>
+        <v>58194.012650687357</v>
       </c>
       <c r="D53">
-        <v>0.21040312484302609</v>
+        <v>0.25598030246509818</v>
       </c>
       <c r="E53">
-        <v>2712.581462479628</v>
+        <v>2453.4937016236709</v>
       </c>
       <c r="F53">
-        <v>4480</v>
+        <v>4824</v>
       </c>
       <c r="G53">
-        <v>0.25948098430458078</v>
+        <v>0.23082064139530309</v>
       </c>
       <c r="H53">
-        <v>976912.87280420423</v>
+        <v>1070270.504078713</v>
       </c>
       <c r="I53">
-        <v>3794459.0803382918</v>
+        <v>4738538.1146665337</v>
       </c>
       <c r="J53">
-        <v>0.20633551488733101</v>
+        <v>0.21354031949641439</v>
       </c>
       <c r="K53">
-        <v>0.1475554218626097</v>
+        <v>0.17054466482598629</v>
       </c>
       <c r="L53">
-        <v>8.2410295670568595E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7.235364154356981E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>97</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>49867.064308909059</v>
+        <v>74151.060024417326</v>
       </c>
       <c r="D54">
-        <v>0.21964306621066071</v>
+        <v>0.27900697626982951</v>
       </c>
       <c r="E54">
-        <v>2517.739498295075</v>
+        <v>2231.49375734772</v>
       </c>
       <c r="F54">
-        <v>5147</v>
+        <v>4699</v>
       </c>
       <c r="G54">
-        <v>0.26233244461933081</v>
+        <v>0.22871491116380799</v>
       </c>
       <c r="H54">
-        <v>1370575.3392835669</v>
+        <v>1443370.0144776581</v>
       </c>
       <c r="I54">
-        <v>5432424.0611562179</v>
+        <v>6697200.1118416786</v>
       </c>
       <c r="J54">
-        <v>0.28905296369855288</v>
+        <v>0.32684285835101751</v>
       </c>
       <c r="K54">
-        <v>0.1674244445248205</v>
+        <v>0.17329107856907641</v>
       </c>
       <c r="L54">
-        <v>7.0674048150901558E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+        <v>6.8255779027701996E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>98</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>0.1479218309723189</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>90</v>
       </c>
@@ -2578,7 +2585,7 @@
         <v>0.12676406297480869</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>91</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>0.1056752660652618</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>92</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>9.460747221964956E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>93</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>0.1009964364217977</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>94</v>
       </c>
@@ -2730,7 +2737,7 @@
         <v>9.39466405894476E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>95</v>
       </c>
@@ -2768,121 +2775,121 @@
         <v>0.1194157055636898</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>96</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>43957.750804056057</v>
+        <v>39010.668367016893</v>
       </c>
       <c r="D62">
-        <v>0.22081474818195709</v>
+        <v>0.22155647692518499</v>
       </c>
       <c r="E62">
-        <v>2822.0892150513459</v>
+        <v>2518.4848662124659</v>
       </c>
       <c r="F62">
-        <v>676</v>
+        <v>1935</v>
       </c>
       <c r="G62">
-        <v>0.32264066275584241</v>
+        <v>0.24979619539779269</v>
       </c>
       <c r="H62">
-        <v>1030987.641450482</v>
+        <v>1101387.7485945381</v>
       </c>
       <c r="I62">
-        <v>3080409.3652423248</v>
+        <v>4549182.1367015447</v>
       </c>
       <c r="J62">
-        <v>0.33246192731601393</v>
+        <v>0.33099719857983778</v>
       </c>
       <c r="K62">
-        <v>0.24347456553811511</v>
+        <v>0.21695080142870929</v>
       </c>
       <c r="L62">
-        <v>0.12124681715928</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7.8820479497057505E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>97</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>54496.050980309003</v>
+        <v>76558.92151281728</v>
       </c>
       <c r="D63">
-        <v>0.24134115050555821</v>
+        <v>0.28293880346955708</v>
       </c>
       <c r="E63">
-        <v>2655.4181246555709</v>
+        <v>2287.914195690631</v>
       </c>
       <c r="F63">
-        <v>801</v>
+        <v>1032</v>
       </c>
       <c r="G63">
-        <v>0.30750089384306167</v>
+        <v>0.26893388605094959</v>
       </c>
       <c r="H63">
-        <v>1510259.2620019349</v>
+        <v>1464763.1635084481</v>
       </c>
       <c r="I63">
-        <v>4669444.2988233464</v>
+        <v>6017160.9950160328</v>
       </c>
       <c r="J63">
-        <v>0.50306921287107231</v>
+        <v>0.36424410560174891</v>
       </c>
       <c r="K63">
-        <v>0.32619343525080058</v>
+        <v>0.20384533560597931</v>
       </c>
       <c r="L63">
-        <v>0.1794368703668639</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.0325189628576377E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>98</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>69752.677961048859</v>
+        <v>62654.372058345863</v>
       </c>
       <c r="D64">
-        <v>0.22176589980500069</v>
+        <v>0.24378166984953251</v>
       </c>
       <c r="E64">
-        <v>2713.947299342944</v>
+        <v>2494.0671327595701</v>
       </c>
       <c r="F64">
-        <v>676</v>
+        <v>1713</v>
       </c>
       <c r="G64">
-        <v>0.31693772120235592</v>
+        <v>0.25825223065360148</v>
       </c>
       <c r="H64">
-        <v>2159025.6827680478</v>
+        <v>2005981.937305738</v>
       </c>
       <c r="I64">
-        <v>6643852.8947480302</v>
+        <v>8243638.5485356357</v>
       </c>
       <c r="J64">
-        <v>0.50315510573274169</v>
+        <v>0.43094941822200872</v>
       </c>
       <c r="K64">
-        <v>0.34308210787019922</v>
+        <v>0.25219914038146413</v>
       </c>
       <c r="L64">
-        <v>0.1747525312243205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.11907294427899009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>90</v>
       </c>
@@ -2920,7 +2927,7 @@
         <v>7.0675358261395815E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>91</v>
       </c>
@@ -2958,7 +2965,7 @@
         <v>7.1476551513618911E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>92</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>7.139568672346705E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>93</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>5.6341912126094372E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>94</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>6.1178530966894192E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>95</v>
       </c>
@@ -3110,83 +3117,83 @@
         <v>8.1687730714787091E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>96</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C71">
-        <v>72984.901697331064</v>
+        <v>16601.139941534489</v>
       </c>
       <c r="D71">
-        <v>0.30317277169718071</v>
+        <v>0.1133960878779488</v>
       </c>
       <c r="E71">
-        <v>2467.8317135856141</v>
+        <v>2996.6821570551688</v>
       </c>
       <c r="F71">
-        <v>1040</v>
+        <v>2235</v>
       </c>
       <c r="G71">
-        <v>0.25738861755957437</v>
+        <v>0.3775202112796624</v>
       </c>
       <c r="H71">
-        <v>1160330.485467334</v>
+        <v>1121880.5139895731</v>
       </c>
       <c r="I71">
-        <v>4829504.2847082149</v>
+        <v>2925039.13273264</v>
       </c>
       <c r="J71">
-        <v>0.37774766241764363</v>
+        <v>0.44113381975835769</v>
       </c>
       <c r="K71">
-        <v>0.17067086524073899</v>
+        <v>0.29796890648341778</v>
       </c>
       <c r="L71">
-        <v>6.6200456681199019E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.14113851082073561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>97</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>76558.92151281728</v>
+        <v>37837.056277140116</v>
       </c>
       <c r="D72">
-        <v>0.28293880346955708</v>
+        <v>0.18097597486566419</v>
       </c>
       <c r="E72">
-        <v>2287.914195690631</v>
+        <v>2674.8244012459591</v>
       </c>
       <c r="F72">
-        <v>1032</v>
+        <v>1211</v>
       </c>
       <c r="G72">
-        <v>0.26893388605094959</v>
+        <v>0.2595907859155504</v>
       </c>
       <c r="H72">
-        <v>1464763.1635084481</v>
+        <v>1466838.1729925619</v>
       </c>
       <c r="I72">
-        <v>6017160.9950160328</v>
+        <v>6133084.5925058238</v>
       </c>
       <c r="J72">
-        <v>0.36424410560174891</v>
+        <v>0.32436778023707252</v>
       </c>
       <c r="K72">
-        <v>0.20384533560597931</v>
+        <v>0.1867350768348415</v>
       </c>
       <c r="L72">
-        <v>8.0325189628576377E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7.9595923693487905E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>98</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>0.11324825489172891</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>90</v>
       </c>
@@ -3262,7 +3269,7 @@
         <v>8.3152039942195138E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>91</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>7.5587447942069383E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>92</v>
       </c>
@@ -3338,7 +3345,7 @@
         <v>7.7982598018254079E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>93</v>
       </c>
@@ -3376,7 +3383,7 @@
         <v>8.7912839985979263E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>94</v>
       </c>
@@ -3414,7 +3421,7 @@
         <v>7.6620604858571154E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>95</v>
       </c>
@@ -3452,83 +3459,83 @@
         <v>7.7160246795473772E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>96</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>32880.846052747351</v>
+        <v>15962.757362820859</v>
       </c>
       <c r="D80">
-        <v>0.18012743391554981</v>
+        <v>0.11751206019975401</v>
       </c>
       <c r="E80">
-        <v>2846.6263387643689</v>
+        <v>2757.9540044175978</v>
       </c>
       <c r="F80">
-        <v>1249</v>
+        <v>5079</v>
       </c>
       <c r="G80">
-        <v>0.26763119043352313</v>
+        <v>0.32333088865103032</v>
       </c>
       <c r="H80">
-        <v>1069652.076126378</v>
+        <v>1122773.844549526</v>
       </c>
       <c r="I80">
-        <v>4222972.9675258799</v>
+        <v>3582149.1857326808</v>
       </c>
       <c r="J80">
-        <v>0.151740075161308</v>
+        <v>0.32503461306528708</v>
       </c>
       <c r="K80">
-        <v>0.14800629755546091</v>
+        <v>0.20234381090107459</v>
       </c>
       <c r="L80">
-        <v>8.9016635287013077E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.10080534847367779</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>97</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81">
-        <v>37837.056277140116</v>
+        <v>20025.247528079279</v>
       </c>
       <c r="D81">
-        <v>0.18097597486566419</v>
+        <v>0.1202972941807128</v>
       </c>
       <c r="E81">
-        <v>2674.8244012459591</v>
+        <v>2619.408294370342</v>
       </c>
       <c r="F81">
-        <v>1211</v>
+        <v>2216</v>
       </c>
       <c r="G81">
-        <v>0.2595907859155504</v>
+        <v>0.3640658928627139</v>
       </c>
       <c r="H81">
-        <v>1466838.1729925619</v>
+        <v>1468646.2175274689</v>
       </c>
       <c r="I81">
-        <v>6133084.5925058238</v>
+        <v>3938435.126483792</v>
       </c>
       <c r="J81">
-        <v>0.32436778023707252</v>
+        <v>0.51690738519653523</v>
       </c>
       <c r="K81">
-        <v>0.1867350768348415</v>
+        <v>0.31774257516473131</v>
       </c>
       <c r="L81">
-        <v>7.9595923693487905E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.16022250510287531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>98</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>0.1044301621625589</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>90</v>
       </c>
@@ -3604,7 +3611,7 @@
         <v>6.7545780142642023E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>91</v>
       </c>
@@ -3642,7 +3649,7 @@
         <v>6.1674144362099073E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>92</v>
       </c>
@@ -3680,7 +3687,7 @@
         <v>7.4274461532581368E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>93</v>
       </c>
@@ -3718,7 +3725,7 @@
         <v>6.4484200458369514E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>94</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>6.8607509539317837E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>95</v>
       </c>
@@ -3794,121 +3801,121 @@
         <v>6.0633556379878092E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>96</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>25630.754516255809</v>
+        <v>61380.608592327073</v>
       </c>
       <c r="D89">
-        <v>0.17946848130483711</v>
+        <v>0.27180539921494629</v>
       </c>
       <c r="E89">
-        <v>2604.046503711967</v>
+        <v>2352.2056284275141</v>
       </c>
       <c r="F89">
-        <v>2986</v>
+        <v>4448</v>
       </c>
       <c r="G89">
-        <v>0.3028359264046534</v>
+        <v>0.22235775668804039</v>
       </c>
       <c r="H89">
-        <v>1070058.1014267809</v>
+        <v>1124102.6436914599</v>
       </c>
       <c r="I89">
-        <v>3690887.5362320421</v>
+        <v>5141973.856133067</v>
       </c>
       <c r="J89">
-        <v>0.24243213634310631</v>
+        <v>0.23851746696023091</v>
       </c>
       <c r="K89">
-        <v>0.17433486793340119</v>
+        <v>0.14954606637074969</v>
       </c>
       <c r="L89">
-        <v>6.5340576299298361E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+        <v>5.9672605287370437E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>97</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>32068.61549588681</v>
+        <v>69491.215673452476</v>
       </c>
       <c r="D90">
-        <v>0.19131354779493909</v>
+        <v>0.26082601663310651</v>
       </c>
       <c r="E90">
-        <v>2422.271935554958</v>
+        <v>2403.6853394062641</v>
       </c>
       <c r="F90">
-        <v>2757</v>
+        <v>5349</v>
       </c>
       <c r="G90">
-        <v>0.30607117512287441</v>
+        <v>0.2420302503443153</v>
       </c>
       <c r="H90">
-        <v>1286374.7214324861</v>
+        <v>1471202.2368761611</v>
       </c>
       <c r="I90">
-        <v>4461751.9066816373</v>
+        <v>6567012.4625465469</v>
       </c>
       <c r="J90">
-        <v>0.26053428821523161</v>
+        <v>0.32511304080317571</v>
       </c>
       <c r="K90">
-        <v>0.18199940982001561</v>
+        <v>0.20353379312727371</v>
       </c>
       <c r="L90">
-        <v>7.8371874626677399E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.969375400733727E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>98</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>45491.142271759949</v>
+        <v>91321.358821530652</v>
       </c>
       <c r="D91">
-        <v>0.22079669581436279</v>
+        <v>0.27191064286837552</v>
       </c>
       <c r="E91">
-        <v>2369.8838267169799</v>
+        <v>2465.4217879480002</v>
       </c>
       <c r="F91">
-        <v>2528</v>
+        <v>4852</v>
       </c>
       <c r="G91">
-        <v>0.29736402557705871</v>
+        <v>0.25502641208228338</v>
       </c>
       <c r="H91">
-        <v>2075269.332828922</v>
+        <v>2123856.7788258558</v>
       </c>
       <c r="I91">
-        <v>7150972.6563456329</v>
+        <v>9272381.7591832653</v>
       </c>
       <c r="J91">
-        <v>0.40988531900237202</v>
+        <v>0.36670136368618922</v>
       </c>
       <c r="K91">
-        <v>0.21567196167387351</v>
+        <v>0.23625982094944301</v>
       </c>
       <c r="L91">
-        <v>0.11194078138238001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.1177350465759104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3946,7 +3953,7 @@
         <v>7.1863985253494814E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>7.0439843490367804E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>0.1049371196955844</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4060,7 +4067,7 @@
         <v>9.2176610974876588E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4098,7 +4105,7 @@
         <v>7.8603586370916523E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4136,121 +4143,121 @@
         <v>0.1072830011422294</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>15962.757362820859</v>
+        <v>72984.901697331064</v>
       </c>
       <c r="D98">
-        <v>0.11751206019975401</v>
+        <v>0.30317277169718071</v>
       </c>
       <c r="E98">
-        <v>2757.9540044175978</v>
+        <v>2467.8317135856141</v>
       </c>
       <c r="F98">
-        <v>5079</v>
+        <v>1040</v>
       </c>
       <c r="G98">
-        <v>0.32333088865103032</v>
+        <v>0.25738861755957437</v>
       </c>
       <c r="H98">
-        <v>1122773.844549526</v>
+        <v>1160330.485467334</v>
       </c>
       <c r="I98">
-        <v>3582149.1857326808</v>
+        <v>4829504.2847082149</v>
       </c>
       <c r="J98">
-        <v>0.32503461306528708</v>
+        <v>0.37774766241764363</v>
       </c>
       <c r="K98">
-        <v>0.20234381090107459</v>
+        <v>0.17067086524073899</v>
       </c>
       <c r="L98">
-        <v>0.10080534847367779</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+        <v>6.6200456681199019E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>19928.404769274621</v>
+        <v>54496.050980309003</v>
       </c>
       <c r="D99">
-        <v>0.11257546238633399</v>
+        <v>0.24134115050555821</v>
       </c>
       <c r="E99">
-        <v>2653.4722728525398</v>
+        <v>2655.4181246555709</v>
       </c>
       <c r="F99">
-        <v>4852</v>
+        <v>801</v>
       </c>
       <c r="G99">
-        <v>0.31081462579906799</v>
+        <v>0.30750089384306167</v>
       </c>
       <c r="H99">
-        <v>1398345.2062890821</v>
+        <v>1510259.2620019349</v>
       </c>
       <c r="I99">
-        <v>4576857.0384191154</v>
+        <v>4669444.2988233464</v>
       </c>
       <c r="J99">
-        <v>0.34635291400912022</v>
+        <v>0.50306921287107231</v>
       </c>
       <c r="K99">
-        <v>0.16901299783910739</v>
+        <v>0.32619343525080058</v>
       </c>
       <c r="L99">
-        <v>8.5542342934135804E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.1794368703668639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>24525.317408190142</v>
+        <v>98955.723105194658</v>
       </c>
       <c r="D100">
-        <v>0.1207914360951293</v>
+        <v>0.2894698725447386</v>
       </c>
       <c r="E100">
-        <v>2673.281162377014</v>
+        <v>2170.9145611630129</v>
       </c>
       <c r="F100">
-        <v>4434</v>
+        <v>4161</v>
       </c>
       <c r="G100">
-        <v>0.33114653231677299</v>
+        <v>0.22601845493844619</v>
       </c>
       <c r="H100">
-        <v>2132106.1457239818</v>
+        <v>2155697.749947031</v>
       </c>
       <c r="I100">
-        <v>6914138.5108693726</v>
+        <v>9918177.5618582964</v>
       </c>
       <c r="J100">
-        <v>0.48539942990562063</v>
+        <v>0.36928842696446718</v>
       </c>
       <c r="K100">
-        <v>0.2040607067010605</v>
+        <v>0.23153220227497109</v>
       </c>
       <c r="L100">
-        <v>0.1179492173286574</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+        <v>9.6923050648158912E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>90</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>6.4345932243489029E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>91</v>
       </c>
@@ -4326,7 +4333,7 @@
         <v>6.6561969551606939E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>92</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>8.0502924552222105E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>93</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>0.1061366978412606</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>94</v>
       </c>
@@ -4440,7 +4447,7 @@
         <v>9.7377857781503624E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>95</v>
       </c>
@@ -4483,37 +4490,37 @@
         <v>96</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>17055.911558795</v>
+        <v>91682.479200811751</v>
       </c>
       <c r="D107">
-        <v>0.12766445153251529</v>
+        <v>0.31883796964069661</v>
       </c>
       <c r="E107">
-        <v>2765.9972266217069</v>
+        <v>2375.833879800889</v>
       </c>
       <c r="F107">
-        <v>6613</v>
+        <v>1298</v>
       </c>
       <c r="G107">
-        <v>0.34225060896059339</v>
+        <v>0.18780151191844091</v>
       </c>
       <c r="H107">
-        <v>968925.22975207213</v>
+        <v>1182823.747704631</v>
       </c>
       <c r="I107">
-        <v>2832530.031109334</v>
+        <v>6506592.3029105086</v>
       </c>
       <c r="J107">
-        <v>0.27877337247345291</v>
+        <v>0.20828316957301071</v>
       </c>
       <c r="K107">
-        <v>0.1837058017261293</v>
+        <v>0.1897270548502113</v>
       </c>
       <c r="L107">
-        <v>7.589234469405115E-2</v>
+        <v>7.3002740155287085E-2</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
@@ -4521,37 +4528,37 @@
         <v>97</v>
       </c>
       <c r="B108">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>21275.314588751698</v>
+        <v>107483.91455158179</v>
       </c>
       <c r="D108">
-        <v>0.1329347125167307</v>
+        <v>0.32888257484308592</v>
       </c>
       <c r="E108">
-        <v>2660.0378654132492</v>
+        <v>2170.939762462127</v>
       </c>
       <c r="F108">
-        <v>6469</v>
+        <v>1385</v>
       </c>
       <c r="G108">
-        <v>0.34883312580558368</v>
+        <v>0.19503060067238431</v>
       </c>
       <c r="H108">
-        <v>1240511.7015035041</v>
+        <v>1576694.5411449049</v>
       </c>
       <c r="I108">
-        <v>3711159.6360742091</v>
+        <v>8547282.766006805</v>
       </c>
       <c r="J108">
-        <v>0.3411807951296239</v>
+        <v>0.30852189437196581</v>
       </c>
       <c r="K108">
-        <v>0.19775428923018101</v>
+        <v>0.1881614348829147</v>
       </c>
       <c r="L108">
-        <v>8.6111928171980212E-2</v>
+        <v>7.6755368494784232E-2</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
@@ -4559,40 +4566,40 @@
         <v>98</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>28251.877634593369</v>
+        <v>152304.52648855461</v>
       </c>
       <c r="D109">
-        <v>0.13448074879309821</v>
+        <v>0.3529283943474501</v>
       </c>
       <c r="E109">
-        <v>2654.4642903187828</v>
+        <v>2150.9300771921789</v>
       </c>
       <c r="F109">
-        <v>5878</v>
+        <v>1222</v>
       </c>
       <c r="G109">
-        <v>0.34505777506155239</v>
+        <v>0.1914526266414745</v>
       </c>
       <c r="H109">
-        <v>1987198.3330980551</v>
+        <v>2068183.2078091239</v>
       </c>
       <c r="I109">
-        <v>5931137.0281966487</v>
+        <v>11310049.122205799</v>
       </c>
       <c r="J109">
-        <v>0.48413991581180138</v>
+        <v>0.26862041671843739</v>
       </c>
       <c r="K109">
-        <v>0.2233544335575309</v>
+        <v>0.23882709742023051</v>
       </c>
       <c r="L109">
-        <v>0.1196537072166837</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.1090686129898002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>90</v>
       </c>
@@ -4630,7 +4637,7 @@
         <v>0.15790238354671901</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>91</v>
       </c>
@@ -4668,7 +4675,7 @@
         <v>8.858011580734082E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>92</v>
       </c>
@@ -4706,7 +4713,7 @@
         <v>9.8979755704050501E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>93</v>
       </c>
@@ -4744,7 +4751,7 @@
         <v>0.1186359432441715</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>94</v>
       </c>
@@ -4782,7 +4789,7 @@
         <v>0.1070672528582934</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>95</v>
       </c>
@@ -4820,121 +4827,131 @@
         <v>0.12204632603365941</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>96</v>
       </c>
       <c r="B116">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>16601.139941534489</v>
+        <v>217367.38740377029</v>
       </c>
       <c r="D116">
-        <v>0.1133960878779488</v>
+        <v>0.43046199824201797</v>
       </c>
       <c r="E116">
-        <v>2996.6821570551688</v>
+        <v>2447.5624576072619</v>
       </c>
       <c r="F116">
-        <v>2235</v>
+        <v>989</v>
       </c>
       <c r="G116">
-        <v>0.3775202112796624</v>
+        <v>0.1613205878102533</v>
       </c>
       <c r="H116">
-        <v>1121880.5139895731</v>
+        <v>1226800.5623768831</v>
       </c>
       <c r="I116">
-        <v>2925039.13273264</v>
+        <v>8407477.2797570918</v>
       </c>
       <c r="J116">
-        <v>0.44113381975835769</v>
+        <v>0.17525468043412401</v>
       </c>
       <c r="K116">
-        <v>0.29796890648341778</v>
+        <v>0.16182704265411091</v>
       </c>
       <c r="L116">
-        <v>0.14113851082073561</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7.9388786036162465E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>97</v>
       </c>
       <c r="B117">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>20025.247528079279</v>
+        <v>287291.63318893552</v>
       </c>
       <c r="D117">
-        <v>0.1202972941807128</v>
+        <v>0.4685619609491346</v>
       </c>
       <c r="E117">
-        <v>2619.408294370342</v>
+        <v>2375.1653585927161</v>
       </c>
       <c r="F117">
-        <v>2216</v>
+        <v>1016</v>
       </c>
       <c r="G117">
-        <v>0.3640658928627139</v>
+        <v>0.15414364824962881</v>
       </c>
       <c r="H117">
-        <v>1468646.2175274689</v>
+        <v>1630871.354408154</v>
       </c>
       <c r="I117">
-        <v>3938435.126483792</v>
+        <v>11494311.034200121</v>
       </c>
       <c r="J117">
-        <v>0.51690738519653523</v>
+        <v>0.18050159747453939</v>
       </c>
       <c r="K117">
-        <v>0.31774257516473131</v>
+        <v>0.19892612281441899</v>
       </c>
       <c r="L117">
-        <v>0.16022250510287531</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8.0145913735171659E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>98</v>
       </c>
       <c r="B118">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>26773.455199622731</v>
+        <v>396998.6373863031</v>
       </c>
       <c r="D118">
-        <v>0.1218196410456384</v>
+        <v>0.48595990877343093</v>
       </c>
       <c r="E118">
-        <v>2684.584043169089</v>
+        <v>2248.5416052762471</v>
       </c>
       <c r="F118">
-        <v>1935</v>
+        <v>862</v>
       </c>
       <c r="G118">
-        <v>0.38546582445590499</v>
+        <v>0.14590582386348261</v>
       </c>
       <c r="H118">
-        <v>2138514.2282972219</v>
+        <v>2049759.9008623289</v>
       </c>
       <c r="I118">
-        <v>5860829.2257064953</v>
+        <v>14876364.81505955</v>
       </c>
       <c r="J118">
-        <v>0.57397280446163701</v>
+        <v>0.23880544572050641</v>
       </c>
       <c r="K118">
-        <v>0.32547530169449429</v>
+        <v>0.1674769209760387</v>
       </c>
       <c r="L118">
-        <v>0.18205719690601199</v>
+        <v>6.4832622767263023E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L118" xr:uid="{7DD36254-9220-478B-8D5C-F21C5593CDAB}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:L116">
+      <sortCondition ref="H1"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L118">
     <sortCondition ref="B1"/>
   </sortState>
